--- a/InversionesSELF/Inversiones.xlsx
+++ b/InversionesSELF/Inversiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/InversionesSELF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="13_ncr:1_{AD348567-E064-42FC-9033-2A64F931E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9792E9EC-5284-4DA7-9C98-E39654788D52}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="13_ncr:1_{AD348567-E064-42FC-9033-2A64F931E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48343843-6B34-4A69-AB29-435FEEF1FC07}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="472" activeTab="1" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="20370" yWindow="-8490" windowWidth="29040" windowHeight="16440" tabRatio="472" activeTab="1" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
     <sheet name="Bco Galicia" sheetId="1" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
     <t>PLC3D</t>
   </si>
   <si>
-    <t>PAGADO</t>
+    <t>PAGO</t>
   </si>
 </sst>
 </file>
@@ -1627,6 +1627,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1669,25 +1672,22 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1761,6 +1761,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2098,481 +2102,481 @@
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="36"/>
       <c r="B1" s="37"/>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="42" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="42" t="s">
+      <c r="V1" s="44"/>
+      <c r="W1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="42" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="42" t="s">
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="42" t="s">
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="43"/>
+      <c r="AH1" s="44"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="56">
+      <c r="C2" s="55">
         <v>32</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="54">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57">
         <v>32</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="54">
+      <c r="F2" s="58"/>
+      <c r="G2" s="57">
         <v>6</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="54">
+      <c r="H2" s="58"/>
+      <c r="I2" s="57">
         <v>32</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="54">
+      <c r="J2" s="58"/>
+      <c r="K2" s="57">
         <v>24</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="54">
+      <c r="L2" s="58"/>
+      <c r="M2" s="57">
         <v>24</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="54">
+      <c r="N2" s="58"/>
+      <c r="O2" s="57">
         <v>32</v>
       </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="54">
+      <c r="P2" s="58"/>
+      <c r="Q2" s="57">
         <v>32</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="54">
+      <c r="R2" s="58"/>
+      <c r="S2" s="57">
         <v>32</v>
       </c>
-      <c r="T2" s="55"/>
-      <c r="U2" s="54">
+      <c r="T2" s="58"/>
+      <c r="U2" s="57">
         <v>24</v>
       </c>
-      <c r="V2" s="55"/>
-      <c r="W2" s="54">
+      <c r="V2" s="58"/>
+      <c r="W2" s="57">
         <v>18</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="54">
+      <c r="X2" s="58"/>
+      <c r="Y2" s="57">
         <v>32</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="54">
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="57">
         <v>30</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="54">
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="57">
         <v>40</v>
       </c>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="44">
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="45">
         <v>24</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="44">
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="45">
         <v>40</v>
       </c>
-      <c r="AH2" s="45"/>
+      <c r="AH2" s="46"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="18"/>
-      <c r="C3" s="44">
+      <c r="C3" s="45">
         <v>4</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="44">
+      <c r="D3" s="46"/>
+      <c r="E3" s="45">
         <v>2</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="44">
+      <c r="F3" s="46"/>
+      <c r="G3" s="45">
         <v>1</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="44">
+      <c r="H3" s="46"/>
+      <c r="I3" s="45">
         <v>2</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="44">
+      <c r="J3" s="46"/>
+      <c r="K3" s="45">
         <v>2</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="44">
+      <c r="L3" s="46"/>
+      <c r="M3" s="45">
         <v>2</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="44">
+      <c r="N3" s="46"/>
+      <c r="O3" s="45">
         <v>4</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="44">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45">
         <v>2</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="44">
+      <c r="R3" s="46"/>
+      <c r="S3" s="45">
         <v>4</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
+      <c r="T3" s="46"/>
+      <c r="U3" s="45">
         <v>2</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="44">
+      <c r="V3" s="46"/>
+      <c r="W3" s="45">
         <v>4</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="46"/>
+      <c r="Y3" s="45">
         <v>2</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="44">
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="45">
         <v>2</v>
       </c>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="44">
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="45">
         <v>2</v>
       </c>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="44">
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="45">
         <v>4</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="44">
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="45">
         <v>4</v>
       </c>
-      <c r="AH3" s="45"/>
+      <c r="AH3" s="46"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="18"/>
-      <c r="C4" s="46">
+      <c r="C4" s="47">
         <v>46501</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="46">
+      <c r="D4" s="48"/>
+      <c r="E4" s="47">
         <v>47027</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="46">
+      <c r="F4" s="48"/>
+      <c r="G4" s="47">
         <v>46174</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="46">
+      <c r="H4" s="48"/>
+      <c r="I4" s="47">
         <v>47392</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="46">
+      <c r="J4" s="48"/>
+      <c r="K4" s="47">
         <v>46702</v>
       </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="46">
+      <c r="L4" s="48"/>
+      <c r="M4" s="47">
         <v>46367</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="46">
+      <c r="N4" s="48"/>
+      <c r="O4" s="47">
         <v>47500</v>
       </c>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="46">
+      <c r="P4" s="48"/>
+      <c r="Q4" s="47">
         <v>47510</v>
       </c>
-      <c r="R4" s="47"/>
-      <c r="S4" s="46">
+      <c r="R4" s="48"/>
+      <c r="S4" s="47">
         <v>46664</v>
       </c>
-      <c r="T4" s="47"/>
-      <c r="U4" s="46">
+      <c r="T4" s="48"/>
+      <c r="U4" s="47">
         <v>46424</v>
       </c>
-      <c r="V4" s="47"/>
-      <c r="W4" s="46">
+      <c r="V4" s="48"/>
+      <c r="W4" s="47">
         <v>46174</v>
       </c>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="46">
+      <c r="X4" s="48"/>
+      <c r="Y4" s="47">
         <v>47896</v>
       </c>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="46">
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="47">
         <v>46627</v>
       </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="46">
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="47">
         <v>47187</v>
       </c>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="46">
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="47">
         <v>47187</v>
       </c>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="46">
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="47">
         <v>47187</v>
       </c>
-      <c r="AH4" s="47"/>
+      <c r="AH4" s="48"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="18"/>
-      <c r="C5" s="44">
+      <c r="C5" s="45">
         <v>32</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="44">
+      <c r="D5" s="46"/>
+      <c r="E5" s="45">
         <f>4*12</f>
         <v>48</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="44">
+      <c r="F5" s="46"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="45">
         <v>60</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="44">
+      <c r="J5" s="46"/>
+      <c r="K5" s="45">
         <v>24</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="44">
+      <c r="L5" s="46"/>
+      <c r="M5" s="45">
         <v>24</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="44">
+      <c r="N5" s="46"/>
+      <c r="O5" s="45">
         <v>60</v>
       </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="44">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="45">
         <v>60</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="44">
+      <c r="R5" s="46"/>
+      <c r="S5" s="45">
         <v>32</v>
       </c>
-      <c r="T5" s="45"/>
-      <c r="U5" s="44">
+      <c r="T5" s="46"/>
+      <c r="U5" s="45">
         <v>24</v>
       </c>
-      <c r="V5" s="45"/>
-      <c r="W5" s="44">
+      <c r="V5" s="46"/>
+      <c r="W5" s="45">
         <v>18</v>
       </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="44">
+      <c r="X5" s="46"/>
+      <c r="Y5" s="45">
         <v>60</v>
       </c>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="44">
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="45">
         <v>30</v>
       </c>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="44">
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="45">
         <v>60</v>
       </c>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="44">
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="45">
         <v>60</v>
       </c>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="44">
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="45">
         <v>60</v>
       </c>
-      <c r="AH5" s="45"/>
+      <c r="AH5" s="46"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="18"/>
-      <c r="C6" s="48">
+      <c r="C6" s="49">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="48">
+      <c r="D6" s="50"/>
+      <c r="E6" s="49">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="48">
+      <c r="F6" s="50"/>
+      <c r="G6" s="49">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="48">
+      <c r="H6" s="50"/>
+      <c r="I6" s="49">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="48">
+      <c r="J6" s="50"/>
+      <c r="K6" s="49">
         <v>0.08</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="48">
+      <c r="L6" s="50"/>
+      <c r="M6" s="49">
         <v>0.06</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="48">
+      <c r="N6" s="50"/>
+      <c r="O6" s="49">
         <v>0.08</v>
       </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="48">
+      <c r="P6" s="50"/>
+      <c r="Q6" s="49">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R6" s="49"/>
-      <c r="S6" s="48">
+      <c r="R6" s="50"/>
+      <c r="S6" s="49">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T6" s="49"/>
-      <c r="U6" s="48">
+      <c r="T6" s="50"/>
+      <c r="U6" s="49">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="V6" s="49"/>
-      <c r="W6" s="48">
+      <c r="V6" s="50"/>
+      <c r="W6" s="49">
         <v>0.1095</v>
       </c>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="48">
+      <c r="X6" s="50"/>
+      <c r="Y6" s="49">
         <v>0.08</v>
       </c>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="48">
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="49">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="48">
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="49">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="48">
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="49">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="48">
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="49">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AH6" s="49"/>
+      <c r="AH6" s="50"/>
     </row>
     <row r="7" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="50" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="50" t="s">
+      <c r="J7" s="52"/>
+      <c r="K7" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="50" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="50" t="s">
+      <c r="N7" s="52"/>
+      <c r="O7" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="50" t="s">
+      <c r="P7" s="52"/>
+      <c r="Q7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="50" t="s">
+      <c r="R7" s="52"/>
+      <c r="S7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="51"/>
-      <c r="U7" s="50" t="s">
+      <c r="T7" s="52"/>
+      <c r="U7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="51"/>
-      <c r="W7" s="50" t="s">
+      <c r="V7" s="52"/>
+      <c r="W7" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="50" t="s">
+      <c r="X7" s="52"/>
+      <c r="Y7" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="50" t="s">
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="50" t="s">
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="51"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="52"/>
     </row>
     <row r="8" spans="1:34" s="29" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
@@ -2582,68 +2586,68 @@
         <f>SUM(C8:AH8)</f>
         <v>172898</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="53">
         <v>19000</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="52">
+      <c r="D8" s="54"/>
+      <c r="E8" s="53">
         <v>20163</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="52">
+      <c r="F8" s="54"/>
+      <c r="G8" s="53">
         <v>10000</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="52">
+      <c r="H8" s="54"/>
+      <c r="I8" s="53">
         <v>18000</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="52">
+      <c r="J8" s="54"/>
+      <c r="K8" s="53">
         <v>4000</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="52">
+      <c r="L8" s="54"/>
+      <c r="M8" s="53">
         <v>4000</v>
       </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="52">
+      <c r="N8" s="54"/>
+      <c r="O8" s="53">
         <v>8000</v>
       </c>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="52">
+      <c r="P8" s="54"/>
+      <c r="Q8" s="53">
         <v>8000</v>
       </c>
-      <c r="R8" s="53"/>
-      <c r="S8" s="52">
+      <c r="R8" s="54"/>
+      <c r="S8" s="53">
         <v>4000</v>
       </c>
-      <c r="T8" s="53"/>
-      <c r="U8" s="52">
+      <c r="T8" s="54"/>
+      <c r="U8" s="53">
         <v>5000</v>
       </c>
-      <c r="V8" s="53"/>
-      <c r="W8" s="52">
+      <c r="V8" s="54"/>
+      <c r="W8" s="53">
         <v>935</v>
       </c>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="52">
+      <c r="X8" s="54"/>
+      <c r="Y8" s="53">
         <v>8000</v>
       </c>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="52">
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="53">
         <v>11000</v>
       </c>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="52">
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="53">
         <v>7800</v>
       </c>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="52">
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="53">
         <v>45000</v>
       </c>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="53"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="54"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -3238,86 +3242,86 @@
         <f>SUM(C21:AM21)</f>
         <v>9480.0162500000006</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="41">
         <f>SUM(D9:D20)</f>
         <v>1975</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="40">
+      <c r="D21" s="42"/>
+      <c r="E21" s="41">
         <f>SUM(F9:F20)</f>
         <v>1539.18</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="40">
+      <c r="F21" s="42"/>
+      <c r="G21" s="41">
         <f>SUM(H9:H20)</f>
         <v>294.83</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="40">
+      <c r="H21" s="42"/>
+      <c r="I21" s="41">
         <f>SUM(J9:J20)</f>
         <v>1213</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="40">
+      <c r="J21" s="42"/>
+      <c r="K21" s="41">
         <f>SUM(L9:L20)</f>
         <v>320</v>
       </c>
-      <c r="L21" s="41"/>
-      <c r="M21" s="40">
+      <c r="L21" s="42"/>
+      <c r="M21" s="41">
         <f>SUM(N9:N20)</f>
         <v>240</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="40">
+      <c r="N21" s="42"/>
+      <c r="O21" s="41">
         <f>SUM(P9:P20)</f>
         <v>160</v>
       </c>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="40">
+      <c r="P21" s="42"/>
+      <c r="Q21" s="41">
         <f>SUM(R9:R20)</f>
         <v>300</v>
       </c>
-      <c r="R21" s="41"/>
-      <c r="S21" s="40">
+      <c r="R21" s="42"/>
+      <c r="S21" s="41">
         <f>SUM(T9:T20)</f>
         <v>210</v>
       </c>
-      <c r="T21" s="41"/>
-      <c r="U21" s="40">
+      <c r="T21" s="42"/>
+      <c r="U21" s="41">
         <f>SUM(V9:V20)</f>
         <v>237.5</v>
       </c>
-      <c r="V21" s="41"/>
-      <c r="W21" s="40">
+      <c r="V21" s="42"/>
+      <c r="W21" s="41">
         <f>SUM(X9:X20)</f>
         <v>103.65625</v>
       </c>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="40">
+      <c r="X21" s="42"/>
+      <c r="Y21" s="41">
         <f>SUM(Z9:Z20)</f>
         <v>320</v>
       </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="40">
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="41">
         <f>SUM(AB9:AB20)</f>
         <v>481.24999999999994</v>
       </c>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="40">
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="41">
         <f>SUM(AD9:AD20)</f>
         <v>308.10000000000002</v>
       </c>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="40">
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="41">
         <f>SUM(AF9:AF20)</f>
         <v>1777.5</v>
       </c>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="40">
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="41">
         <f>SUM(AH9:AH20)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="41"/>
+      <c r="AH21" s="42"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -3955,86 +3959,86 @@
         <f>SUM(C34:AM34)</f>
         <v>12548.87125</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="41">
         <f>SUM(D22:D33)</f>
         <v>1330.0000000000002</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="40">
+      <c r="D34" s="42"/>
+      <c r="E34" s="41">
         <f>SUM(F22:F33)</f>
         <v>1539.18</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="40">
+      <c r="F34" s="42"/>
+      <c r="G34" s="41">
         <f>SUM(H22:H33)</f>
         <v>75.8</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="40">
+      <c r="H34" s="42"/>
+      <c r="I34" s="41">
         <f>SUM(J22:J33)</f>
         <v>1224</v>
       </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="40">
+      <c r="J34" s="42"/>
+      <c r="K34" s="41">
         <f>SUM(L22:L33)</f>
         <v>320</v>
       </c>
-      <c r="L34" s="41"/>
-      <c r="M34" s="40">
+      <c r="L34" s="42"/>
+      <c r="M34" s="41">
         <f>SUM(N22:N33)</f>
         <v>240</v>
       </c>
-      <c r="N34" s="41"/>
-      <c r="O34" s="40">
+      <c r="N34" s="42"/>
+      <c r="O34" s="41">
         <f>SUM(P22:P33)</f>
         <v>640</v>
       </c>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="40">
+      <c r="P34" s="42"/>
+      <c r="Q34" s="41">
         <f>SUM(R22:R33)</f>
         <v>600</v>
       </c>
-      <c r="R34" s="41"/>
-      <c r="S34" s="40">
+      <c r="R34" s="42"/>
+      <c r="S34" s="41">
         <f>SUM(T22:T33)</f>
         <v>280</v>
       </c>
-      <c r="T34" s="41"/>
-      <c r="U34" s="40">
+      <c r="T34" s="42"/>
+      <c r="U34" s="41">
         <f>SUM(V22:V33)</f>
         <v>475</v>
       </c>
-      <c r="V34" s="41"/>
-      <c r="W34" s="40">
+      <c r="V34" s="42"/>
+      <c r="W34" s="41">
         <f>SUM(X22:X33)</f>
         <v>51.191249999999997</v>
       </c>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="40">
+      <c r="X34" s="42"/>
+      <c r="Y34" s="41">
         <f>SUM(Z22:Z33)</f>
         <v>640</v>
       </c>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="40">
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="41">
         <f>SUM(AB22:AB33)</f>
         <v>962.49999999999989</v>
       </c>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="40">
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="41">
         <f>SUM(AD22:AD33)</f>
         <v>616.20000000000005</v>
       </c>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="40">
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="41">
         <f>SUM(AF22:AF33)</f>
         <v>3555</v>
       </c>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="40">
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="41">
         <f>SUM(AH22:AH33)</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="41"/>
+      <c r="AH34" s="42"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
@@ -4617,86 +4621,86 @@
         <f>SUM(C47:Q47)</f>
         <v>4335.68</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="41">
         <f>SUM(D35:D46)</f>
         <v>332.50000000000006</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="40">
+      <c r="D47" s="42"/>
+      <c r="E47" s="41">
         <f>SUM(F35:F46)</f>
         <v>1539.18</v>
       </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="40">
+      <c r="F47" s="42"/>
+      <c r="G47" s="41">
         <f>SUM(H35:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="40">
+      <c r="H47" s="42"/>
+      <c r="I47" s="41">
         <f>SUM(J35:J46)</f>
         <v>1224</v>
       </c>
-      <c r="J47" s="41"/>
-      <c r="K47" s="40">
+      <c r="J47" s="42"/>
+      <c r="K47" s="41">
         <f>SUM(L35:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="41"/>
-      <c r="M47" s="40">
+      <c r="L47" s="42"/>
+      <c r="M47" s="41">
         <f>SUM(N35:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="41"/>
-      <c r="O47" s="40">
+      <c r="N47" s="42"/>
+      <c r="O47" s="41">
         <f>SUM(P35:P46)</f>
         <v>640</v>
       </c>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="40">
+      <c r="P47" s="42"/>
+      <c r="Q47" s="41">
         <f>SUM(R35:R46)</f>
         <v>600</v>
       </c>
-      <c r="R47" s="41"/>
-      <c r="S47" s="40">
+      <c r="R47" s="42"/>
+      <c r="S47" s="41">
         <f>SUM(T35:T46)</f>
         <v>280</v>
       </c>
-      <c r="T47" s="41"/>
-      <c r="U47" s="40">
+      <c r="T47" s="42"/>
+      <c r="U47" s="41">
         <f t="shared" ref="U47" si="4">SUM(V35:V46)</f>
         <v>237.5</v>
       </c>
-      <c r="V47" s="41"/>
-      <c r="W47" s="40">
+      <c r="V47" s="42"/>
+      <c r="W47" s="41">
         <f t="shared" ref="W47" si="5">SUM(X35:X46)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="40">
+      <c r="X47" s="42"/>
+      <c r="Y47" s="41">
         <f t="shared" ref="Y47" si="6">SUM(Z35:Z46)</f>
         <v>640</v>
       </c>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="40">
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="41">
         <f t="shared" ref="AA47" si="7">SUM(AB35:AB46)</f>
         <v>481.24999999999994</v>
       </c>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="40">
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="41">
         <f t="shared" ref="AC47" si="8">SUM(AD35:AD46)</f>
         <v>616.20000000000005</v>
       </c>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="40">
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="41">
         <f t="shared" ref="AE47" si="9">SUM(AF35:AF46)</f>
         <v>0</v>
       </c>
-      <c r="AF47" s="41"/>
-      <c r="AG47" s="40">
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="41">
         <f t="shared" ref="AG47" si="10">SUM(AH35:AH46)</f>
         <v>616.20000000000005</v>
       </c>
-      <c r="AH47" s="41"/>
+      <c r="AH47" s="42"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
@@ -5239,59 +5243,59 @@
         <f>SUM(C60:K60)</f>
         <v>1993.5900000000001</v>
       </c>
-      <c r="C60" s="40">
+      <c r="C60" s="41">
         <f>SUM(D48:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="40">
+      <c r="D60" s="42"/>
+      <c r="E60" s="41">
         <f>SUM(F48:F59)</f>
         <v>769.59</v>
       </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="40">
+      <c r="F60" s="42"/>
+      <c r="G60" s="41">
         <f>SUM(H48:H59)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="40">
+      <c r="H60" s="42"/>
+      <c r="I60" s="41">
         <f>SUM(J48:J59)</f>
         <v>1224</v>
       </c>
-      <c r="J60" s="41"/>
-      <c r="K60" s="40">
+      <c r="J60" s="42"/>
+      <c r="K60" s="41">
         <f>SUM(L48:L59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="41"/>
-      <c r="M60" s="40">
+      <c r="L60" s="42"/>
+      <c r="M60" s="41">
         <f>SUM(N48:N59)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="41"/>
-      <c r="O60" s="40">
+      <c r="N60" s="42"/>
+      <c r="O60" s="41">
         <f>SUM(P48:P59)</f>
         <v>640</v>
       </c>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="41"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="40"/>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="40"/>
-      <c r="AB60" s="41"/>
-      <c r="AC60" s="40"/>
-      <c r="AD60" s="41"/>
-      <c r="AE60" s="40"/>
-      <c r="AF60" s="41"/>
-      <c r="AG60" s="40"/>
-      <c r="AH60" s="41"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="41"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="41"/>
+      <c r="Z60" s="42"/>
+      <c r="AA60" s="41"/>
+      <c r="AB60" s="42"/>
+      <c r="AC60" s="41"/>
+      <c r="AD60" s="42"/>
+      <c r="AE60" s="41"/>
+      <c r="AF60" s="42"/>
+      <c r="AG60" s="41"/>
+      <c r="AH60" s="42"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
@@ -5808,75 +5812,233 @@
         <f>SUM(C73:K73)</f>
         <v>612</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="41">
         <f>SUM(D61:D72)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="40">
+      <c r="D73" s="42"/>
+      <c r="E73" s="41">
         <f>SUM(F61:F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="41"/>
-      <c r="G73" s="40">
+      <c r="F73" s="42"/>
+      <c r="G73" s="41">
         <f>SUM(H61:H72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="40">
+      <c r="H73" s="42"/>
+      <c r="I73" s="41">
         <f>SUM(J61:J72)</f>
         <v>612</v>
       </c>
-      <c r="J73" s="41"/>
-      <c r="K73" s="40">
+      <c r="J73" s="42"/>
+      <c r="K73" s="41">
         <f>SUM(L61:L72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="41"/>
-      <c r="M73" s="40">
+      <c r="L73" s="42"/>
+      <c r="M73" s="41">
         <f>SUM(N61:N72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="41"/>
-      <c r="O73" s="40">
+      <c r="N73" s="42"/>
+      <c r="O73" s="41">
         <f>SUM(P61:P72)</f>
         <v>640</v>
       </c>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="41"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="41"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="41"/>
-      <c r="W73" s="40"/>
-      <c r="X73" s="41"/>
-      <c r="Y73" s="40"/>
-      <c r="Z73" s="41"/>
-      <c r="AA73" s="40"/>
-      <c r="AB73" s="41"/>
-      <c r="AC73" s="40"/>
-      <c r="AD73" s="41"/>
-      <c r="AE73" s="40"/>
-      <c r="AF73" s="41"/>
-      <c r="AG73" s="40"/>
-      <c r="AH73" s="41"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="41"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="41"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="41"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="41"/>
+      <c r="AD73" s="42"/>
+      <c r="AE73" s="41"/>
+      <c r="AF73" s="42"/>
+      <c r="AG73" s="41"/>
+      <c r="AH73" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="208">
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AE73:AF73"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AG73:AH73"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AC73:AD73"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
@@ -5901,177 +6063,19 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U73:V73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="W73:X73"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="AA60:AB60"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AC73:AD73"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AE73:AF73"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE21:AF21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
@@ -6086,8 +6090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7903F3-7FF2-4F38-8363-870FC32BBC88}">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6138,7 +6142,7 @@
       <c r="E2" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="40">
         <v>45867</v>
       </c>
       <c r="G2" s="1">
@@ -6162,7 +6166,7 @@
       <c r="E3" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="40">
         <v>45960</v>
       </c>
       <c r="G3" s="1">
@@ -6186,7 +6190,7 @@
       <c r="E4" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="40">
         <v>46052</v>
       </c>
       <c r="G4" s="1">
@@ -6210,7 +6214,7 @@
       <c r="E5" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="40">
         <v>46142</v>
       </c>
       <c r="G5" s="1">
@@ -6234,7 +6238,7 @@
       <c r="E6" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="40">
         <v>46233</v>
       </c>
       <c r="G6" s="1">
@@ -6258,7 +6262,7 @@
       <c r="E7" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="40">
         <v>46325</v>
       </c>
       <c r="G7" s="1">
@@ -6282,7 +6286,7 @@
       <c r="E8" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="40">
         <v>46416</v>
       </c>
       <c r="G8" s="1">
@@ -6306,7 +6310,7 @@
       <c r="E9" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="40">
         <v>46507</v>
       </c>
       <c r="G9" s="1">
@@ -6330,7 +6334,7 @@
       <c r="E10" s="1">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="40">
         <v>45757</v>
       </c>
       <c r="G10" s="1">
@@ -6356,7 +6360,7 @@
       <c r="E11" s="1">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="40">
         <v>45940</v>
       </c>
       <c r="G11" s="1">
@@ -6379,7 +6383,7 @@
       <c r="E12" s="1">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="40">
         <v>46122</v>
       </c>
       <c r="G12" s="1">
@@ -6403,7 +6407,7 @@
       <c r="E13" s="1">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="40">
         <v>46308</v>
       </c>
       <c r="G13" s="1">
@@ -6427,7 +6431,7 @@
       <c r="E14" s="1">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="40">
         <v>46489</v>
       </c>
       <c r="G14" s="1">
@@ -6451,7 +6455,7 @@
       <c r="E15" s="1">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="40">
         <v>46671</v>
       </c>
       <c r="G15" s="1">
@@ -6475,7 +6479,7 @@
       <c r="E16" s="1">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="40">
         <v>46853</v>
       </c>
       <c r="G16" s="1">
@@ -6499,7 +6503,7 @@
       <c r="E17" s="1">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="40">
         <v>47036</v>
       </c>
       <c r="G17" s="1">
@@ -6523,7 +6527,7 @@
       <c r="E18" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="40">
         <v>45681</v>
       </c>
       <c r="G18" s="1">
@@ -6549,7 +6553,7 @@
       <c r="E19" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="40">
         <v>45771</v>
       </c>
       <c r="G19" s="1">
@@ -6575,7 +6579,7 @@
       <c r="E20" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="40">
         <v>45862</v>
       </c>
       <c r="G20" s="1">
@@ -6599,7 +6603,7 @@
       <c r="E21" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="40">
         <v>45954</v>
       </c>
       <c r="G21" s="1">
@@ -6623,7 +6627,7 @@
       <c r="E22" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="40">
         <v>46048</v>
       </c>
       <c r="G22" s="1">
@@ -6647,7 +6651,7 @@
       <c r="E23" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="40">
         <v>46136</v>
       </c>
       <c r="G23" s="1">
@@ -6671,7 +6675,7 @@
       <c r="E24" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="40">
         <v>46227</v>
       </c>
       <c r="G24" s="1">
@@ -6695,7 +6699,7 @@
       <c r="E25" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="40">
         <v>46321</v>
       </c>
       <c r="G25" s="1">
@@ -6719,7 +6723,7 @@
       <c r="E26" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="40">
         <v>46412</v>
       </c>
       <c r="G26" s="1">
@@ -6743,7 +6747,7 @@
       <c r="E27" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="40">
         <v>46503</v>
       </c>
       <c r="G27" s="1">
@@ -6767,7 +6771,7 @@
       <c r="E28" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="40">
         <v>45771</v>
       </c>
       <c r="G28" s="1">
@@ -6793,11 +6797,11 @@
       <c r="E29" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F29" s="40">
         <v>45954</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:G48" si="3">INT(C29*E29/D29)</f>
+        <f t="shared" ref="G29:G42" si="3">INT(C29*E29/D29)</f>
         <v>612</v>
       </c>
     </row>
@@ -6817,7 +6821,7 @@
       <c r="E30" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="40">
         <v>46136</v>
       </c>
       <c r="G30" s="1">
@@ -6841,7 +6845,7 @@
       <c r="E31" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="40">
         <v>46321</v>
       </c>
       <c r="G31" s="1">
@@ -6865,7 +6869,7 @@
       <c r="E32" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="40">
         <v>46503</v>
       </c>
       <c r="G32" s="1">
@@ -6889,7 +6893,7 @@
       <c r="E33" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="40">
         <v>46685</v>
       </c>
       <c r="G33" s="1">
@@ -6913,7 +6917,7 @@
       <c r="E34" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="40">
         <v>46867</v>
       </c>
       <c r="G34" s="1">
@@ -6937,7 +6941,7 @@
       <c r="E35" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F35" s="60">
+      <c r="F35" s="40">
         <v>47050</v>
       </c>
       <c r="G35" s="1">
@@ -6961,7 +6965,7 @@
       <c r="E36" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="40">
         <v>47232</v>
       </c>
       <c r="G36" s="1">
@@ -6985,7 +6989,7 @@
       <c r="E37" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F37" s="60">
+      <c r="F37" s="40">
         <v>47415</v>
       </c>
       <c r="G37" s="1">
@@ -7009,7 +7013,7 @@
       <c r="E38" s="1">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F38" s="40">
         <v>45897</v>
       </c>
       <c r="G38" s="1">
@@ -7033,7 +7037,7 @@
       <c r="E39" s="1">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="40">
         <v>46083</v>
       </c>
       <c r="G39" s="1">
@@ -7057,7 +7061,7 @@
       <c r="E40" s="1">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="40">
         <v>46262</v>
       </c>
       <c r="G40" s="1">
@@ -7081,7 +7085,7 @@
       <c r="E41" s="1">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="40">
         <v>46447</v>
       </c>
       <c r="G41" s="1">
@@ -7105,7 +7109,7 @@
       <c r="E42" s="1">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="F42" s="60">
+      <c r="F42" s="40">
         <v>46629</v>
       </c>
       <c r="G42" s="1">
@@ -7129,7 +7133,7 @@
       <c r="E43" s="1">
         <v>0.03</v>
       </c>
-      <c r="F43" s="60">
+      <c r="F43" s="40">
         <v>45718</v>
       </c>
       <c r="G43" s="1">
@@ -7155,7 +7159,7 @@
       <c r="E44" s="1">
         <v>0.03</v>
       </c>
-      <c r="F44" s="60">
+      <c r="F44" s="40">
         <v>45810</v>
       </c>
       <c r="G44" s="1">
@@ -7178,7 +7182,7 @@
       <c r="E45" s="1">
         <v>0.03</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="40">
         <v>45901</v>
       </c>
       <c r="G45" s="1">
@@ -7201,7 +7205,7 @@
       <c r="E46" s="1">
         <v>0.03</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="40">
         <v>45992</v>
       </c>
       <c r="G46" s="1">
@@ -7224,7 +7228,7 @@
       <c r="E47" s="1">
         <v>0.03</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="40">
         <v>46083</v>
       </c>
       <c r="G47" s="1">
@@ -7247,7 +7251,7 @@
       <c r="E48" s="1">
         <v>0.03</v>
       </c>
-      <c r="F48" s="60">
+      <c r="F48" s="40">
         <v>46174</v>
       </c>
       <c r="G48" s="1">
@@ -7270,7 +7274,7 @@
       <c r="E49" s="1">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F49" s="60">
+      <c r="F49" s="40">
         <v>46052</v>
       </c>
       <c r="G49" s="1">
@@ -7294,7 +7298,7 @@
       <c r="E50" s="1">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F50" s="60">
+      <c r="F50" s="40">
         <v>46233</v>
       </c>
       <c r="G50" s="1">
@@ -7318,7 +7322,7 @@
       <c r="E51" s="1">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F51" s="60">
+      <c r="F51" s="40">
         <v>46419</v>
       </c>
       <c r="G51" s="1">
@@ -7342,7 +7346,7 @@
       <c r="E52" s="1">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F52" s="60">
+      <c r="F52" s="40">
         <v>46598</v>
       </c>
       <c r="G52" s="1">
@@ -7366,7 +7370,7 @@
       <c r="E53" s="1">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F53" s="60">
+      <c r="F53" s="40">
         <v>46783</v>
       </c>
       <c r="G53" s="1">
@@ -7390,7 +7394,7 @@
       <c r="E54" s="1">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F54" s="60">
+      <c r="F54" s="40">
         <v>46875</v>
       </c>
       <c r="G54" s="1">
@@ -7414,7 +7418,7 @@
       <c r="E55" s="1">
         <v>0.08</v>
       </c>
-      <c r="F55" s="60">
+      <c r="F55" s="40">
         <v>45947</v>
       </c>
       <c r="G55" s="1">
@@ -7438,7 +7442,7 @@
       <c r="E56" s="1">
         <v>0.08</v>
       </c>
-      <c r="F56" s="60">
+      <c r="F56" s="40">
         <v>46041</v>
       </c>
       <c r="G56" s="1">
@@ -7462,7 +7466,7 @@
       <c r="E57" s="1">
         <v>0.08</v>
       </c>
-      <c r="F57" s="60">
+      <c r="F57" s="40">
         <v>46129</v>
       </c>
       <c r="G57" s="1">
@@ -7486,7 +7490,7 @@
       <c r="E58" s="1">
         <v>0.08</v>
       </c>
-      <c r="F58" s="60">
+      <c r="F58" s="40">
         <v>46220</v>
       </c>
       <c r="G58" s="1">
@@ -7510,7 +7514,7 @@
       <c r="E59" s="1">
         <v>0.08</v>
       </c>
-      <c r="F59" s="60">
+      <c r="F59" s="40">
         <v>46314</v>
       </c>
       <c r="G59" s="1">
@@ -7534,7 +7538,7 @@
       <c r="E60" s="1">
         <v>0.08</v>
       </c>
-      <c r="F60" s="60">
+      <c r="F60" s="40">
         <v>46405</v>
       </c>
       <c r="G60" s="1">
@@ -7558,7 +7562,7 @@
       <c r="E61" s="1">
         <v>0.08</v>
       </c>
-      <c r="F61" s="60">
+      <c r="F61" s="40">
         <v>46496</v>
       </c>
       <c r="G61" s="1">
@@ -7582,7 +7586,7 @@
       <c r="E62" s="1">
         <v>0.08</v>
       </c>
-      <c r="F62" s="60">
+      <c r="F62" s="40">
         <v>46587</v>
       </c>
       <c r="G62" s="1">
@@ -7606,7 +7610,7 @@
       <c r="E63" s="1">
         <v>0.08</v>
       </c>
-      <c r="F63" s="60">
+      <c r="F63" s="40">
         <v>46678</v>
       </c>
       <c r="G63" s="1">
@@ -7630,7 +7634,7 @@
       <c r="E64" s="1">
         <v>0.08</v>
       </c>
-      <c r="F64" s="60">
+      <c r="F64" s="40">
         <v>46769</v>
       </c>
       <c r="G64" s="1">
@@ -7654,7 +7658,7 @@
       <c r="E65" s="1">
         <v>0.08</v>
       </c>
-      <c r="F65" s="60">
+      <c r="F65" s="40">
         <v>46860</v>
       </c>
       <c r="G65" s="1">
@@ -7678,7 +7682,7 @@
       <c r="E66" s="1">
         <v>0.08</v>
       </c>
-      <c r="F66" s="60">
+      <c r="F66" s="40">
         <v>46951</v>
       </c>
       <c r="G66" s="1">
@@ -7702,7 +7706,7 @@
       <c r="E67" s="1">
         <v>0.08</v>
       </c>
-      <c r="F67" s="60">
+      <c r="F67" s="40">
         <v>47043</v>
       </c>
       <c r="G67" s="1">
@@ -7726,7 +7730,7 @@
       <c r="E68" s="1">
         <v>0.08</v>
       </c>
-      <c r="F68" s="60">
+      <c r="F68" s="40">
         <v>47135</v>
       </c>
       <c r="G68" s="1">
@@ -7750,7 +7754,7 @@
       <c r="E69" s="1">
         <v>0.08</v>
       </c>
-      <c r="F69" s="60">
+      <c r="F69" s="40">
         <v>47225</v>
       </c>
       <c r="G69" s="1">
@@ -7774,7 +7778,7 @@
       <c r="E70" s="1">
         <v>0.08</v>
       </c>
-      <c r="F70" s="60">
+      <c r="F70" s="40">
         <v>47316</v>
       </c>
       <c r="G70" s="1">
@@ -7798,7 +7802,7 @@
       <c r="E71" s="1">
         <v>0.08</v>
       </c>
-      <c r="F71" s="60">
+      <c r="F71" s="40">
         <v>47408</v>
       </c>
       <c r="G71" s="1">
@@ -7822,7 +7826,7 @@
       <c r="E72" s="1">
         <v>0.08</v>
       </c>
-      <c r="F72" s="60">
+      <c r="F72" s="40">
         <v>47500</v>
       </c>
       <c r="G72" s="1">
@@ -7846,7 +7850,7 @@
       <c r="E73" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F73" s="60">
+      <c r="F73" s="40">
         <v>45957</v>
       </c>
       <c r="G73" s="1">
@@ -7870,7 +7874,7 @@
       <c r="E74" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F74" s="60">
+      <c r="F74" s="40">
         <v>46139</v>
       </c>
       <c r="G74" s="1">
@@ -7894,7 +7898,7 @@
       <c r="E75" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F75" s="60">
+      <c r="F75" s="40">
         <v>46322</v>
       </c>
       <c r="G75" s="1">
@@ -7918,7 +7922,7 @@
       <c r="E76" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F76" s="60">
+      <c r="F76" s="40">
         <v>46504</v>
       </c>
       <c r="G76" s="1">
@@ -7942,7 +7946,7 @@
       <c r="E77" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F77" s="60">
+      <c r="F77" s="40">
         <v>46687</v>
       </c>
       <c r="G77" s="1">
@@ -7966,7 +7970,7 @@
       <c r="E78" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F78" s="60">
+      <c r="F78" s="40">
         <v>46870</v>
       </c>
       <c r="G78" s="1">
@@ -7990,7 +7994,7 @@
       <c r="E79" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F79" s="60">
+      <c r="F79" s="40">
         <v>47053</v>
       </c>
       <c r="G79" s="1">
@@ -8014,7 +8018,7 @@
       <c r="E80" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F80" s="60">
+      <c r="F80" s="40">
         <v>47235</v>
       </c>
       <c r="G80" s="1">
@@ -8038,7 +8042,7 @@
       <c r="E81" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F81" s="60">
+      <c r="F81" s="40">
         <v>47420</v>
       </c>
       <c r="G81" s="1">
@@ -8062,7 +8066,7 @@
       <c r="E82" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F82" s="60">
+      <c r="F82" s="40">
         <v>47511</v>
       </c>
       <c r="G82" s="1">
@@ -8086,7 +8090,7 @@
       <c r="E83" s="1">
         <v>0.08</v>
       </c>
-      <c r="F83" s="60">
+      <c r="F83" s="40">
         <v>45887</v>
       </c>
       <c r="G83" s="1">
@@ -8110,7 +8114,7 @@
       <c r="E84" s="1">
         <v>0.08</v>
       </c>
-      <c r="F84" s="60">
+      <c r="F84" s="40">
         <v>46071</v>
       </c>
       <c r="G84" s="1">
@@ -8134,7 +8138,7 @@
       <c r="E85" s="1">
         <v>0.08</v>
       </c>
-      <c r="F85" s="60">
+      <c r="F85" s="40">
         <v>46251</v>
       </c>
       <c r="G85" s="1">
@@ -8158,7 +8162,7 @@
       <c r="E86" s="1">
         <v>0.08</v>
       </c>
-      <c r="F86" s="60">
+      <c r="F86" s="40">
         <v>46435</v>
       </c>
       <c r="G86" s="1">
@@ -8182,7 +8186,7 @@
       <c r="E87" s="1">
         <v>0.08</v>
       </c>
-      <c r="F87" s="60">
+      <c r="F87" s="40">
         <v>46616</v>
       </c>
       <c r="G87" s="1">
@@ -8206,7 +8210,7 @@
       <c r="E88" s="1">
         <v>0.08</v>
       </c>
-      <c r="F88" s="60">
+      <c r="F88" s="40">
         <v>46800</v>
       </c>
       <c r="G88" s="1">
@@ -8230,7 +8234,7 @@
       <c r="E89" s="1">
         <v>0.08</v>
       </c>
-      <c r="F89" s="60">
+      <c r="F89" s="40">
         <v>46982</v>
       </c>
       <c r="G89" s="1">
@@ -8254,7 +8258,7 @@
       <c r="E90" s="1">
         <v>0.08</v>
       </c>
-      <c r="F90" s="60">
+      <c r="F90" s="40">
         <v>47168</v>
       </c>
       <c r="G90" s="1">
@@ -8278,7 +8282,7 @@
       <c r="E91" s="1">
         <v>0.08</v>
       </c>
-      <c r="F91" s="60">
+      <c r="F91" s="40">
         <v>47347</v>
       </c>
       <c r="G91" s="1">
@@ -8302,7 +8306,7 @@
       <c r="E92" s="1">
         <v>0.08</v>
       </c>
-      <c r="F92" s="60">
+      <c r="F92" s="40">
         <v>47532</v>
       </c>
       <c r="G92" s="1">
@@ -8326,7 +8330,7 @@
       <c r="E93" s="1">
         <v>0.08</v>
       </c>
-      <c r="F93" s="60">
+      <c r="F93" s="40">
         <v>47896</v>
       </c>
       <c r="G93" s="1">
@@ -8350,7 +8354,7 @@
       <c r="E94" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F94" s="60">
+      <c r="F94" s="40">
         <v>45910</v>
       </c>
       <c r="G94" s="1">
@@ -8374,7 +8378,7 @@
       <c r="E95" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F95" s="60">
+      <c r="F95" s="40">
         <v>46091</v>
       </c>
       <c r="G95" s="1">
@@ -8398,7 +8402,7 @@
       <c r="E96" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F96" s="60">
+      <c r="F96" s="40">
         <v>46275</v>
       </c>
       <c r="G96" s="1">
@@ -8422,7 +8426,7 @@
       <c r="E97" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F97" s="60">
+      <c r="F97" s="40">
         <v>46456</v>
       </c>
       <c r="G97" s="1">
@@ -8446,7 +8450,7 @@
       <c r="E98" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F98" s="60">
+      <c r="F98" s="40">
         <v>46640</v>
       </c>
       <c r="G98" s="1">
@@ -8470,7 +8474,7 @@
       <c r="E99" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F99" s="60">
+      <c r="F99" s="40">
         <v>46822</v>
       </c>
       <c r="G99" s="1">
@@ -8494,7 +8498,7 @@
       <c r="E100" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F100" s="60">
+      <c r="F100" s="40">
         <v>47007</v>
       </c>
       <c r="G100" s="1">
@@ -8518,7 +8522,7 @@
       <c r="E101" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F101" s="60">
+      <c r="F101" s="40">
         <v>47189</v>
       </c>
       <c r="G101" s="1">
@@ -8542,7 +8546,7 @@
       <c r="E102" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F102" s="60">
+      <c r="F102" s="40">
         <v>45875</v>
       </c>
       <c r="G102" s="1">
@@ -8566,7 +8570,7 @@
       <c r="E103" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F103" s="60">
+      <c r="F103" s="40">
         <v>46059</v>
       </c>
       <c r="G103" s="1">
@@ -8590,7 +8594,7 @@
       <c r="E104" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F104" s="60">
+      <c r="F104" s="40">
         <v>46240</v>
       </c>
       <c r="G104" s="1">
@@ -8614,7 +8618,7 @@
       <c r="E105" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F105" s="60">
+      <c r="F105" s="40">
         <v>46428</v>
       </c>
       <c r="G105" s="1">
@@ -8638,7 +8642,7 @@
       <c r="E106" s="1">
         <v>0.08</v>
       </c>
-      <c r="F106" s="60">
+      <c r="F106" s="40">
         <v>45789</v>
       </c>
       <c r="G106" s="1">
@@ -8662,7 +8666,7 @@
       <c r="E107" s="1">
         <v>0.08</v>
       </c>
-      <c r="F107" s="60">
+      <c r="F107" s="40">
         <v>45972</v>
       </c>
       <c r="G107" s="1">
@@ -8686,7 +8690,7 @@
       <c r="E108" s="1">
         <v>0.08</v>
       </c>
-      <c r="F108" s="60">
+      <c r="F108" s="40">
         <v>46153</v>
       </c>
       <c r="G108" s="1">
@@ -8710,7 +8714,7 @@
       <c r="E109" s="1">
         <v>0.08</v>
       </c>
-      <c r="F109" s="60">
+      <c r="F109" s="40">
         <v>46337</v>
       </c>
       <c r="G109" s="1">
@@ -8734,7 +8738,7 @@
       <c r="E110" s="1">
         <v>0.08</v>
       </c>
-      <c r="F110" s="60">
+      <c r="F110" s="40">
         <v>46518</v>
       </c>
       <c r="G110" s="1">
@@ -8758,7 +8762,7 @@
       <c r="E111" s="1">
         <v>0.08</v>
       </c>
-      <c r="F111" s="60">
+      <c r="F111" s="40">
         <v>46702</v>
       </c>
       <c r="G111" s="1">
@@ -8782,7 +8786,7 @@
       <c r="E112" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F112" s="60">
+      <c r="F112" s="40">
         <v>45782</v>
       </c>
       <c r="G112" s="1">
@@ -8806,7 +8810,7 @@
       <c r="E113" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F113" s="60">
+      <c r="F113" s="40">
         <v>45873</v>
       </c>
       <c r="G113" s="1">
@@ -8830,7 +8834,7 @@
       <c r="E114" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F114" s="60">
+      <c r="F114" s="40">
         <v>45965</v>
       </c>
       <c r="G114" s="1">
@@ -8854,7 +8858,7 @@
       <c r="E115" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F115" s="60">
+      <c r="F115" s="40">
         <v>46057</v>
       </c>
       <c r="G115" s="1">
@@ -8878,7 +8882,7 @@
       <c r="E116" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F116" s="60">
+      <c r="F116" s="40">
         <v>46146</v>
       </c>
       <c r="G116" s="1">
@@ -8902,7 +8906,7 @@
       <c r="E117" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F117" s="60">
+      <c r="F117" s="40">
         <v>46238</v>
       </c>
       <c r="G117" s="1">
@@ -8926,7 +8930,7 @@
       <c r="E118" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F118" s="60">
+      <c r="F118" s="40">
         <v>46330</v>
       </c>
       <c r="G118" s="1">
@@ -8950,7 +8954,7 @@
       <c r="E119" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F119" s="60">
+      <c r="F119" s="40">
         <v>46422</v>
       </c>
       <c r="G119" s="1">
@@ -8974,7 +8978,7 @@
       <c r="E120" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F120" s="60">
+      <c r="F120" s="40">
         <v>46511</v>
       </c>
       <c r="G120" s="1">
@@ -8998,7 +9002,7 @@
       <c r="E121" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F121" s="60">
+      <c r="F121" s="40">
         <v>46603</v>
       </c>
       <c r="G121" s="1">
@@ -9022,7 +9026,7 @@
       <c r="E122" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F122" s="60">
+      <c r="F122" s="40">
         <v>46664</v>
       </c>
       <c r="G122" s="1">
@@ -9046,7 +9050,7 @@
       <c r="E123" s="1">
         <v>0.06</v>
       </c>
-      <c r="F123" s="60">
+      <c r="F123" s="40">
         <v>45789</v>
       </c>
       <c r="G123" s="1">
@@ -9070,7 +9074,7 @@
       <c r="E124" s="1">
         <v>0.06</v>
       </c>
-      <c r="F124" s="60">
+      <c r="F124" s="40">
         <v>45973</v>
       </c>
       <c r="G124" s="1">
@@ -9094,7 +9098,7 @@
       <c r="E125" s="1">
         <v>0.06</v>
       </c>
-      <c r="F125" s="60">
+      <c r="F125" s="40">
         <v>46154</v>
       </c>
       <c r="G125" s="1">
@@ -9118,7 +9122,7 @@
       <c r="E126" s="1">
         <v>0.06</v>
       </c>
-      <c r="F126" s="60">
+      <c r="F126" s="40">
         <v>46338</v>
       </c>
       <c r="G126" s="1">
@@ -9142,7 +9146,7 @@
       <c r="E127" s="1">
         <v>0.1095</v>
       </c>
-      <c r="F127" s="60">
+      <c r="F127" s="40">
         <v>45838</v>
       </c>
       <c r="G127" s="1">
@@ -9166,7 +9170,7 @@
       <c r="E128" s="1">
         <v>0.1095</v>
       </c>
-      <c r="F128" s="60">
+      <c r="F128" s="40">
         <v>45930</v>
       </c>
       <c r="G128" s="1">
@@ -9190,7 +9194,7 @@
       <c r="E129" s="1">
         <v>0.1095</v>
       </c>
-      <c r="F129" s="60">
+      <c r="F129" s="40">
         <v>46021</v>
       </c>
       <c r="G129" s="1">
@@ -9214,7 +9218,7 @@
       <c r="E130" s="1">
         <v>0.1095</v>
       </c>
-      <c r="F130" s="60">
+      <c r="F130" s="40">
         <v>46111</v>
       </c>
       <c r="G130" s="1">
@@ -9238,7 +9242,7 @@
       <c r="E131" s="1">
         <v>0.1095</v>
       </c>
-      <c r="F131" s="60">
+      <c r="F131" s="40">
         <v>46203</v>
       </c>
       <c r="G131" s="1">
@@ -9283,12 +9287,12 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -9308,12 +9312,12 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -9358,12 +9362,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -9383,12 +9387,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">

--- a/InversionesSELF/Inversiones.xlsx
+++ b/InversionesSELF/Inversiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/InversionesSELF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="604" documentId="13_ncr:1_{AD348567-E064-42FC-9033-2A64F931E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C29D9E97-2462-4744-8CD9-0CA861F871D1}"/>
+  <xr:revisionPtr revIDLastSave="614" documentId="13_ncr:1_{AD348567-E064-42FC-9033-2A64F931E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA7E4C44-E01B-4C61-865A-FA7A6A3B0F2D}"/>
   <bookViews>
-    <workbookView xWindow="-23850" yWindow="195" windowWidth="19020" windowHeight="14775" tabRatio="472" activeTab="2" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="-26565" yWindow="1350" windowWidth="24945" windowHeight="14100" tabRatio="472" activeTab="2" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
     <sheet name="Bco Galicia" sheetId="1" r:id="rId1"/>
@@ -1080,9 +1080,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1566,11 +1568,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1657,6 +1660,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1699,43 +1721,22 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2096,481 +2097,481 @@
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
       <c r="B1" s="33"/>
-      <c r="C1" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="38" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="38" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="38" t="s">
+      <c r="V1" s="48"/>
+      <c r="W1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="38" t="s">
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="38" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="38" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="38" t="s">
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="39"/>
+      <c r="AH1" s="48"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="52">
+      <c r="C2" s="59">
         <v>32</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="50">
+      <c r="D2" s="60"/>
+      <c r="E2" s="61">
         <v>32</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="50">
+      <c r="F2" s="62"/>
+      <c r="G2" s="61">
         <v>6</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="50">
+      <c r="H2" s="62"/>
+      <c r="I2" s="61">
         <v>32</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50">
+      <c r="J2" s="62"/>
+      <c r="K2" s="61">
         <v>24</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="50">
+      <c r="L2" s="62"/>
+      <c r="M2" s="61">
         <v>24</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="50">
+      <c r="N2" s="62"/>
+      <c r="O2" s="61">
         <v>32</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="50">
+      <c r="P2" s="62"/>
+      <c r="Q2" s="61">
         <v>32</v>
       </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="50">
+      <c r="R2" s="62"/>
+      <c r="S2" s="61">
         <v>32</v>
       </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="50">
+      <c r="T2" s="62"/>
+      <c r="U2" s="61">
         <v>24</v>
       </c>
-      <c r="V2" s="51"/>
-      <c r="W2" s="50">
+      <c r="V2" s="62"/>
+      <c r="W2" s="61">
         <v>18</v>
       </c>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="50">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="61">
         <v>32</v>
       </c>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="50">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="61">
         <v>30</v>
       </c>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="50">
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="61">
         <v>40</v>
       </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="40">
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="49">
         <v>24</v>
       </c>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="40">
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="49">
         <v>40</v>
       </c>
-      <c r="AH2" s="41"/>
+      <c r="AH2" s="50"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="40">
-        <v>4</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="40">
+      <c r="C3" s="49">
+        <v>4</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="49">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40">
+      <c r="F3" s="50"/>
+      <c r="G3" s="49">
         <v>1</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="40">
+      <c r="H3" s="50"/>
+      <c r="I3" s="49">
         <v>2</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="40">
+      <c r="J3" s="50"/>
+      <c r="K3" s="49">
         <v>2</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40">
+      <c r="L3" s="50"/>
+      <c r="M3" s="49">
         <v>2</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="40">
-        <v>4</v>
-      </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="40">
+      <c r="N3" s="50"/>
+      <c r="O3" s="49">
+        <v>4</v>
+      </c>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="49">
         <v>2</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="40">
-        <v>4</v>
-      </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="40">
+      <c r="R3" s="50"/>
+      <c r="S3" s="49">
+        <v>4</v>
+      </c>
+      <c r="T3" s="50"/>
+      <c r="U3" s="49">
         <v>2</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="40">
-        <v>4</v>
-      </c>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="40">
+      <c r="V3" s="50"/>
+      <c r="W3" s="49">
+        <v>4</v>
+      </c>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="49">
         <v>2</v>
       </c>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="40">
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="49">
         <v>2</v>
       </c>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="40">
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="49">
         <v>2</v>
       </c>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="40">
-        <v>4</v>
-      </c>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="40">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="41"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="49">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="49">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="50"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="16"/>
-      <c r="C4" s="42">
+      <c r="C4" s="51">
         <v>46501</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="42">
+      <c r="D4" s="52"/>
+      <c r="E4" s="51">
         <v>47027</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="42">
+      <c r="F4" s="52"/>
+      <c r="G4" s="51">
         <v>46174</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="42">
+      <c r="H4" s="52"/>
+      <c r="I4" s="51">
         <v>47392</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="42">
+      <c r="J4" s="52"/>
+      <c r="K4" s="51">
         <v>46702</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="42">
+      <c r="L4" s="52"/>
+      <c r="M4" s="51">
         <v>46367</v>
       </c>
-      <c r="N4" s="43"/>
-      <c r="O4" s="42">
+      <c r="N4" s="52"/>
+      <c r="O4" s="51">
         <v>47500</v>
       </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="42">
+      <c r="P4" s="52"/>
+      <c r="Q4" s="51">
         <v>47510</v>
       </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="42">
+      <c r="R4" s="52"/>
+      <c r="S4" s="51">
         <v>46664</v>
       </c>
-      <c r="T4" s="43"/>
-      <c r="U4" s="42">
+      <c r="T4" s="52"/>
+      <c r="U4" s="51">
         <v>46424</v>
       </c>
-      <c r="V4" s="43"/>
-      <c r="W4" s="42">
+      <c r="V4" s="52"/>
+      <c r="W4" s="51">
         <v>46174</v>
       </c>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="42">
+      <c r="X4" s="52"/>
+      <c r="Y4" s="51">
         <v>47896</v>
       </c>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="42">
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="51">
         <v>46627</v>
       </c>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="42">
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="51">
         <v>47187</v>
       </c>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="42">
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="51">
         <v>47187</v>
       </c>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="42">
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="51">
         <v>47187</v>
       </c>
-      <c r="AH4" s="43"/>
+      <c r="AH4" s="52"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="40">
+      <c r="C5" s="49">
         <v>32</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40">
+      <c r="D5" s="50"/>
+      <c r="E5" s="49">
         <f>4*12</f>
         <v>48</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="40">
+      <c r="F5" s="50"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="49">
         <v>60</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="40">
+      <c r="J5" s="50"/>
+      <c r="K5" s="49">
         <v>24</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="40">
+      <c r="L5" s="50"/>
+      <c r="M5" s="49">
         <v>24</v>
       </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="40">
+      <c r="N5" s="50"/>
+      <c r="O5" s="49">
         <v>60</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="40">
+      <c r="P5" s="50"/>
+      <c r="Q5" s="49">
         <v>60</v>
       </c>
-      <c r="R5" s="41"/>
-      <c r="S5" s="40">
+      <c r="R5" s="50"/>
+      <c r="S5" s="49">
         <v>32</v>
       </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="40">
+      <c r="T5" s="50"/>
+      <c r="U5" s="49">
         <v>24</v>
       </c>
-      <c r="V5" s="41"/>
-      <c r="W5" s="40">
+      <c r="V5" s="50"/>
+      <c r="W5" s="49">
         <v>18</v>
       </c>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="40">
+      <c r="X5" s="50"/>
+      <c r="Y5" s="49">
         <v>60</v>
       </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="40">
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="49">
         <v>30</v>
       </c>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="40">
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="49">
         <v>60</v>
       </c>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="40">
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="49">
         <v>60</v>
       </c>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="40">
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="49">
         <v>60</v>
       </c>
-      <c r="AH5" s="41"/>
+      <c r="AH5" s="50"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="16"/>
-      <c r="C6" s="44">
+      <c r="C6" s="53">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="44">
+      <c r="D6" s="54"/>
+      <c r="E6" s="53">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="44">
+      <c r="F6" s="54"/>
+      <c r="G6" s="53">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="44">
+      <c r="H6" s="54"/>
+      <c r="I6" s="53">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="44">
+      <c r="J6" s="54"/>
+      <c r="K6" s="53">
         <v>0.08</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="44">
+      <c r="L6" s="54"/>
+      <c r="M6" s="53">
         <v>0.06</v>
       </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="44">
+      <c r="N6" s="54"/>
+      <c r="O6" s="53">
         <v>0.08</v>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="44">
+      <c r="P6" s="54"/>
+      <c r="Q6" s="53">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="44">
+      <c r="R6" s="54"/>
+      <c r="S6" s="53">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="44">
+      <c r="T6" s="54"/>
+      <c r="U6" s="53">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="V6" s="45"/>
-      <c r="W6" s="44">
+      <c r="V6" s="54"/>
+      <c r="W6" s="53">
         <v>0.1095</v>
       </c>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="44">
+      <c r="X6" s="54"/>
+      <c r="Y6" s="53">
         <v>0.08</v>
       </c>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="44">
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="53">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="44">
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="53">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="44">
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="53">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="44">
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="53">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AH6" s="45"/>
+      <c r="AH6" s="54"/>
     </row>
     <row r="7" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="46" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="46" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="46" t="s">
+      <c r="L7" s="56"/>
+      <c r="M7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="46" t="s">
+      <c r="N7" s="56"/>
+      <c r="O7" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="46" t="s">
+      <c r="P7" s="56"/>
+      <c r="Q7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="47"/>
-      <c r="S7" s="46" t="s">
+      <c r="R7" s="56"/>
+      <c r="S7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="47"/>
-      <c r="U7" s="46" t="s">
+      <c r="T7" s="56"/>
+      <c r="U7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="47"/>
-      <c r="W7" s="46" t="s">
+      <c r="V7" s="56"/>
+      <c r="W7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="46" t="s">
+      <c r="X7" s="56"/>
+      <c r="Y7" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="46" t="s">
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="46" t="s">
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="47"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="56"/>
     </row>
     <row r="8" spans="1:34" s="27" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
@@ -2580,68 +2581,68 @@
         <f>SUM(C8:AH8)</f>
         <v>172898</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="57">
         <v>19000</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="48">
+      <c r="D8" s="58"/>
+      <c r="E8" s="57">
         <v>20163</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="48">
+      <c r="F8" s="58"/>
+      <c r="G8" s="57">
         <v>10000</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="48">
+      <c r="H8" s="58"/>
+      <c r="I8" s="57">
         <v>18000</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="48">
+      <c r="J8" s="58"/>
+      <c r="K8" s="57">
         <v>4000</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="48">
+      <c r="L8" s="58"/>
+      <c r="M8" s="57">
         <v>4000</v>
       </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="48">
+      <c r="N8" s="58"/>
+      <c r="O8" s="57">
         <v>8000</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="48">
+      <c r="P8" s="58"/>
+      <c r="Q8" s="57">
         <v>8000</v>
       </c>
-      <c r="R8" s="49"/>
-      <c r="S8" s="48">
+      <c r="R8" s="58"/>
+      <c r="S8" s="57">
         <v>4000</v>
       </c>
-      <c r="T8" s="49"/>
-      <c r="U8" s="48">
+      <c r="T8" s="58"/>
+      <c r="U8" s="57">
         <v>5000</v>
       </c>
-      <c r="V8" s="49"/>
-      <c r="W8" s="48">
+      <c r="V8" s="58"/>
+      <c r="W8" s="57">
         <v>935</v>
       </c>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="48">
+      <c r="X8" s="58"/>
+      <c r="Y8" s="57">
         <v>8000</v>
       </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="48">
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="57">
         <v>11000</v>
       </c>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="48">
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="57">
         <v>7800</v>
       </c>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="48">
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="57">
         <v>45000</v>
       </c>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="49"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="58"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
@@ -3236,86 +3237,86 @@
         <f>SUM(C21:AM21)</f>
         <v>9480.0162500000006</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="45">
         <f>SUM(D9:D20)</f>
         <v>1975</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="36">
+      <c r="D21" s="46"/>
+      <c r="E21" s="45">
         <f>SUM(F9:F20)</f>
         <v>1539.18</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="36">
+      <c r="F21" s="46"/>
+      <c r="G21" s="45">
         <f>SUM(H9:H20)</f>
         <v>294.83</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="36">
+      <c r="H21" s="46"/>
+      <c r="I21" s="45">
         <f>SUM(J9:J20)</f>
         <v>1213</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="36">
+      <c r="J21" s="46"/>
+      <c r="K21" s="45">
         <f>SUM(L9:L20)</f>
         <v>320</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="36">
+      <c r="L21" s="46"/>
+      <c r="M21" s="45">
         <f>SUM(N9:N20)</f>
         <v>240</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="36">
+      <c r="N21" s="46"/>
+      <c r="O21" s="45">
         <f>SUM(P9:P20)</f>
         <v>160</v>
       </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="36">
+      <c r="P21" s="46"/>
+      <c r="Q21" s="45">
         <f>SUM(R9:R20)</f>
         <v>300</v>
       </c>
-      <c r="R21" s="37"/>
-      <c r="S21" s="36">
+      <c r="R21" s="46"/>
+      <c r="S21" s="45">
         <f>SUM(T9:T20)</f>
         <v>210</v>
       </c>
-      <c r="T21" s="37"/>
-      <c r="U21" s="36">
+      <c r="T21" s="46"/>
+      <c r="U21" s="45">
         <f>SUM(V9:V20)</f>
         <v>237.5</v>
       </c>
-      <c r="V21" s="37"/>
-      <c r="W21" s="36">
+      <c r="V21" s="46"/>
+      <c r="W21" s="45">
         <f>SUM(X9:X20)</f>
         <v>103.65625</v>
       </c>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="36">
+      <c r="X21" s="46"/>
+      <c r="Y21" s="45">
         <f>SUM(Z9:Z20)</f>
         <v>320</v>
       </c>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="36">
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="45">
         <f>SUM(AB9:AB20)</f>
         <v>481.24999999999994</v>
       </c>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="36">
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="45">
         <f>SUM(AD9:AD20)</f>
         <v>308.10000000000002</v>
       </c>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="36">
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="45">
         <f>SUM(AF9:AF20)</f>
         <v>1777.5</v>
       </c>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="36">
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="45">
         <f>SUM(AH9:AH20)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="37"/>
+      <c r="AH21" s="46"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -3953,86 +3954,86 @@
         <f>SUM(C34:AM34)</f>
         <v>12548.87125</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="45">
         <f>SUM(D22:D33)</f>
         <v>1330.0000000000002</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="36">
+      <c r="D34" s="46"/>
+      <c r="E34" s="45">
         <f>SUM(F22:F33)</f>
         <v>1539.18</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="36">
+      <c r="F34" s="46"/>
+      <c r="G34" s="45">
         <f>SUM(H22:H33)</f>
         <v>75.8</v>
       </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="36">
+      <c r="H34" s="46"/>
+      <c r="I34" s="45">
         <f>SUM(J22:J33)</f>
         <v>1224</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="36">
+      <c r="J34" s="46"/>
+      <c r="K34" s="45">
         <f>SUM(L22:L33)</f>
         <v>320</v>
       </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="36">
+      <c r="L34" s="46"/>
+      <c r="M34" s="45">
         <f>SUM(N22:N33)</f>
         <v>240</v>
       </c>
-      <c r="N34" s="37"/>
-      <c r="O34" s="36">
+      <c r="N34" s="46"/>
+      <c r="O34" s="45">
         <f>SUM(P22:P33)</f>
         <v>640</v>
       </c>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="36">
+      <c r="P34" s="46"/>
+      <c r="Q34" s="45">
         <f>SUM(R22:R33)</f>
         <v>600</v>
       </c>
-      <c r="R34" s="37"/>
-      <c r="S34" s="36">
+      <c r="R34" s="46"/>
+      <c r="S34" s="45">
         <f>SUM(T22:T33)</f>
         <v>280</v>
       </c>
-      <c r="T34" s="37"/>
-      <c r="U34" s="36">
+      <c r="T34" s="46"/>
+      <c r="U34" s="45">
         <f>SUM(V22:V33)</f>
         <v>475</v>
       </c>
-      <c r="V34" s="37"/>
-      <c r="W34" s="36">
+      <c r="V34" s="46"/>
+      <c r="W34" s="45">
         <f>SUM(X22:X33)</f>
         <v>51.191249999999997</v>
       </c>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="36">
+      <c r="X34" s="46"/>
+      <c r="Y34" s="45">
         <f>SUM(Z22:Z33)</f>
         <v>640</v>
       </c>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="36">
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="45">
         <f>SUM(AB22:AB33)</f>
         <v>962.49999999999989</v>
       </c>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="36">
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="45">
         <f>SUM(AD22:AD33)</f>
         <v>616.20000000000005</v>
       </c>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="36">
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="45">
         <f>SUM(AF22:AF33)</f>
         <v>3555</v>
       </c>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="36">
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="45">
         <f>SUM(AH22:AH33)</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="37"/>
+      <c r="AH34" s="46"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
@@ -4615,86 +4616,86 @@
         <f>SUM(C47:Q47)</f>
         <v>4335.68</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="45">
         <f>SUM(D35:D46)</f>
         <v>332.50000000000006</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="36">
+      <c r="D47" s="46"/>
+      <c r="E47" s="45">
         <f>SUM(F35:F46)</f>
         <v>1539.18</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="36">
+      <c r="F47" s="46"/>
+      <c r="G47" s="45">
         <f>SUM(H35:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="36">
+      <c r="H47" s="46"/>
+      <c r="I47" s="45">
         <f>SUM(J35:J46)</f>
         <v>1224</v>
       </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="36">
+      <c r="J47" s="46"/>
+      <c r="K47" s="45">
         <f>SUM(L35:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="37"/>
-      <c r="M47" s="36">
+      <c r="L47" s="46"/>
+      <c r="M47" s="45">
         <f>SUM(N35:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="37"/>
-      <c r="O47" s="36">
+      <c r="N47" s="46"/>
+      <c r="O47" s="45">
         <f>SUM(P35:P46)</f>
         <v>640</v>
       </c>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="36">
+      <c r="P47" s="46"/>
+      <c r="Q47" s="45">
         <f>SUM(R35:R46)</f>
         <v>600</v>
       </c>
-      <c r="R47" s="37"/>
-      <c r="S47" s="36">
+      <c r="R47" s="46"/>
+      <c r="S47" s="45">
         <f>SUM(T35:T46)</f>
         <v>280</v>
       </c>
-      <c r="T47" s="37"/>
-      <c r="U47" s="36">
+      <c r="T47" s="46"/>
+      <c r="U47" s="45">
         <f t="shared" ref="U47" si="4">SUM(V35:V46)</f>
         <v>237.5</v>
       </c>
-      <c r="V47" s="37"/>
-      <c r="W47" s="36">
+      <c r="V47" s="46"/>
+      <c r="W47" s="45">
         <f t="shared" ref="W47" si="5">SUM(X35:X46)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="36">
+      <c r="X47" s="46"/>
+      <c r="Y47" s="45">
         <f t="shared" ref="Y47" si="6">SUM(Z35:Z46)</f>
         <v>640</v>
       </c>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="36">
+      <c r="Z47" s="46"/>
+      <c r="AA47" s="45">
         <f t="shared" ref="AA47" si="7">SUM(AB35:AB46)</f>
         <v>481.24999999999994</v>
       </c>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="36">
+      <c r="AB47" s="46"/>
+      <c r="AC47" s="45">
         <f t="shared" ref="AC47" si="8">SUM(AD35:AD46)</f>
         <v>616.20000000000005</v>
       </c>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="36">
+      <c r="AD47" s="46"/>
+      <c r="AE47" s="45">
         <f t="shared" ref="AE47" si="9">SUM(AF35:AF46)</f>
         <v>0</v>
       </c>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="36">
+      <c r="AF47" s="46"/>
+      <c r="AG47" s="45">
         <f t="shared" ref="AG47" si="10">SUM(AH35:AH46)</f>
         <v>616.20000000000005</v>
       </c>
-      <c r="AH47" s="37"/>
+      <c r="AH47" s="46"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
@@ -5237,59 +5238,59 @@
         <f>SUM(C60:K60)</f>
         <v>1993.5900000000001</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="45">
         <f>SUM(D48:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="37"/>
-      <c r="E60" s="36">
+      <c r="D60" s="46"/>
+      <c r="E60" s="45">
         <f>SUM(F48:F59)</f>
         <v>769.59</v>
       </c>
-      <c r="F60" s="37"/>
-      <c r="G60" s="36">
+      <c r="F60" s="46"/>
+      <c r="G60" s="45">
         <f>SUM(H48:H59)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="37"/>
-      <c r="I60" s="36">
+      <c r="H60" s="46"/>
+      <c r="I60" s="45">
         <f>SUM(J48:J59)</f>
         <v>1224</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="36">
+      <c r="J60" s="46"/>
+      <c r="K60" s="45">
         <f>SUM(L48:L59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="37"/>
-      <c r="M60" s="36">
+      <c r="L60" s="46"/>
+      <c r="M60" s="45">
         <f>SUM(N48:N59)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="37"/>
-      <c r="O60" s="36">
+      <c r="N60" s="46"/>
+      <c r="O60" s="45">
         <f>SUM(P48:P59)</f>
         <v>640</v>
       </c>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="36"/>
-      <c r="AB60" s="37"/>
-      <c r="AC60" s="36"/>
-      <c r="AD60" s="37"/>
-      <c r="AE60" s="36"/>
-      <c r="AF60" s="37"/>
-      <c r="AG60" s="36"/>
-      <c r="AH60" s="37"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="45"/>
+      <c r="X60" s="46"/>
+      <c r="Y60" s="45"/>
+      <c r="Z60" s="46"/>
+      <c r="AA60" s="45"/>
+      <c r="AB60" s="46"/>
+      <c r="AC60" s="45"/>
+      <c r="AD60" s="46"/>
+      <c r="AE60" s="45"/>
+      <c r="AF60" s="46"/>
+      <c r="AG60" s="45"/>
+      <c r="AH60" s="46"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
@@ -5806,75 +5807,233 @@
         <f>SUM(C73:K73)</f>
         <v>612</v>
       </c>
-      <c r="C73" s="36">
+      <c r="C73" s="45">
         <f>SUM(D61:D72)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="E73" s="36">
+      <c r="D73" s="46"/>
+      <c r="E73" s="45">
         <f>SUM(F61:F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="36">
+      <c r="F73" s="46"/>
+      <c r="G73" s="45">
         <f>SUM(H61:H72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="37"/>
-      <c r="I73" s="36">
+      <c r="H73" s="46"/>
+      <c r="I73" s="45">
         <f>SUM(J61:J72)</f>
         <v>612</v>
       </c>
-      <c r="J73" s="37"/>
-      <c r="K73" s="36">
+      <c r="J73" s="46"/>
+      <c r="K73" s="45">
         <f>SUM(L61:L72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="37"/>
-      <c r="M73" s="36">
+      <c r="L73" s="46"/>
+      <c r="M73" s="45">
         <f>SUM(N61:N72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="37"/>
-      <c r="O73" s="36">
+      <c r="N73" s="46"/>
+      <c r="O73" s="45">
         <f>SUM(P61:P72)</f>
         <v>640</v>
       </c>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="36"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="36"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="36"/>
-      <c r="Z73" s="37"/>
-      <c r="AA73" s="36"/>
-      <c r="AB73" s="37"/>
-      <c r="AC73" s="36"/>
-      <c r="AD73" s="37"/>
-      <c r="AE73" s="36"/>
-      <c r="AF73" s="37"/>
-      <c r="AG73" s="36"/>
-      <c r="AH73" s="37"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="45"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="45"/>
+      <c r="X73" s="46"/>
+      <c r="Y73" s="45"/>
+      <c r="Z73" s="46"/>
+      <c r="AA73" s="45"/>
+      <c r="AB73" s="46"/>
+      <c r="AC73" s="45"/>
+      <c r="AD73" s="46"/>
+      <c r="AE73" s="45"/>
+      <c r="AF73" s="46"/>
+      <c r="AG73" s="45"/>
+      <c r="AH73" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="208">
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AE73:AF73"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AG73:AH73"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AC73:AD73"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
@@ -5899,177 +6058,19 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U73:V73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="W73:X73"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="AA60:AB60"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AC73:AD73"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AE73:AF73"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE21:AF21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
@@ -9251,16 +9252,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1BD65A-A71D-4AE8-A790-ED78E98131F2}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
@@ -9355,17 +9356,17 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="55">
+      <c r="G5" s="37">
         <f>+G4+G3</f>
         <v>200500</v>
       </c>
       <c r="H5" s="3">
         <f>+B9</f>
-        <v>193933</v>
+        <v>200000</v>
       </c>
       <c r="I5" s="3">
         <f>+G5-H5</f>
-        <v>6567</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -9395,7 +9396,7 @@
         <v>64</v>
       </c>
       <c r="G7" s="3">
-        <v>47700</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -9406,7 +9407,7 @@
       </c>
       <c r="B8" s="3">
         <f>+G10</f>
-        <v>93933</v>
+        <v>100000</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -9423,7 +9424,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>+B8+B7</f>
-        <v>193933</v>
+        <v>200000</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -9432,7 +9433,7 @@
         <v>57</v>
       </c>
       <c r="G9" s="3">
-        <v>6233</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -9445,7 +9446,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3">
         <f>+G9+G8+G7</f>
-        <v>93933</v>
+        <v>100000</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -9461,17 +9462,17 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="41">
         <v>45000</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="59">
+      <c r="H12" s="41"/>
+      <c r="I12" s="39">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="J12" t="s">
@@ -9482,17 +9483,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="43">
         <v>20163</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="59">
+      <c r="H13" s="41"/>
+      <c r="I13" s="39">
         <v>7.8799999999999995E-2</v>
       </c>
       <c r="J13" t="s">
@@ -9506,17 +9507,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="60" t="s">
+      <c r="E14" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="41">
         <v>19000</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="59">
+      <c r="H14" s="41"/>
+      <c r="I14" s="39">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J14" t="s">
@@ -9525,20 +9526,20 @@
       <c r="K14" s="3">
         <v>18016</v>
       </c>
-      <c r="L14" s="54"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="41">
         <v>18000</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="59">
+      <c r="H15" s="41"/>
+      <c r="I15" s="39">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="J15" t="s">
@@ -9547,26 +9548,26 @@
       <c r="K15" s="3">
         <v>17450</v>
       </c>
-      <c r="L15" s="54"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="57" t="s">
+      <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="2">
         <v>11000</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="38">
         <v>11000</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="39">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="M16" s="54" t="s">
+      <c r="M16" s="36" t="s">
         <v>61</v>
       </c>
       <c r="N16">
@@ -9574,18 +9575,18 @@
         <v>10780</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="60" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="41">
         <v>10000</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="59">
+      <c r="H17" s="41"/>
+      <c r="I17" s="39">
         <v>0.03</v>
       </c>
       <c r="J17" t="s">
@@ -9594,22 +9595,22 @@
       <c r="K17" s="3">
         <v>9841</v>
       </c>
-      <c r="L17" s="54"/>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="62" t="s">
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="43">
         <v>8100</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="44">
         <v>5900</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I18" s="39">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="K18" s="3">
@@ -9622,37 +9623,37 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="57" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="2">
         <v>8000</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="44">
         <v>8000</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="39">
         <v>0.08</v>
       </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="54"/>
-    </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E20" s="60" t="s">
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="41">
         <v>8000</v>
       </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="59">
+      <c r="H20" s="41"/>
+      <c r="I20" s="39">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="J20" t="s">
@@ -9661,151 +9662,151 @@
       <c r="K20" s="3">
         <v>8096</v>
       </c>
-      <c r="L20" s="54"/>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="57" t="s">
+      <c r="L20" s="36"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="2">
         <v>8000</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="2">
         <v>8000</v>
       </c>
-      <c r="I21" s="59">
+      <c r="I21" s="39">
         <v>0.08</v>
       </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="54"/>
-    </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="57" t="s">
+      <c r="L21" s="36"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="2">
         <v>7800</v>
       </c>
-      <c r="H22" s="58">
+      <c r="H22" s="2">
         <v>7800</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="39">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="54"/>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E23" s="57" t="s">
+      <c r="L22" s="36"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="2">
         <v>5000</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H23" s="2">
         <v>5000</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="39">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="54"/>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="57" t="s">
+      <c r="L23" s="36"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G24" s="2">
         <v>4000</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="2">
         <v>4000</v>
       </c>
-      <c r="I24" s="59">
+      <c r="I24" s="39">
         <v>0.08</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="54"/>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="62" t="s">
+      <c r="L24" s="36"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="43">
         <v>4000</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H25" s="38">
         <v>3850</v>
       </c>
-      <c r="I25" s="59">
+      <c r="I25" s="39">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K25" s="3">
         <v>143</v>
       </c>
-      <c r="L25" s="54"/>
+      <c r="L25" s="36"/>
       <c r="M25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="62" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="43">
         <v>4000</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="38">
         <v>3000</v>
       </c>
-      <c r="I26" s="59">
+      <c r="I26" s="39">
         <v>0.06</v>
       </c>
       <c r="K26" s="3">
         <v>950</v>
       </c>
-      <c r="L26" s="54"/>
+      <c r="L26" s="36"/>
       <c r="M26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="57" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G27" s="2">
         <v>935</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H27" s="2">
         <v>935</v>
       </c>
-      <c r="I27" s="59">
+      <c r="I27" s="39">
         <v>0.1095</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G28" s="2"/>
       <c r="H28" s="2">
         <f>SUM(H12:H27)</f>
@@ -9816,9 +9817,28 @@
         <v>111240</v>
       </c>
     </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="63">
+        <v>40000</v>
+      </c>
+      <c r="B30" s="63">
+        <v>1170</v>
+      </c>
+      <c r="C30" s="63">
+        <f>+A30*B30</f>
+        <v>46800000</v>
+      </c>
+      <c r="D30" s="63">
+        <v>45000000</v>
+      </c>
+      <c r="E30" s="63">
+        <f>+C30-D30</f>
+        <v>1800000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10018,7 +10038,7 @@
         <v>46052</v>
       </c>
       <c r="G8" s="1">
-        <f>INT(C8*E8/D8)</f>
+        <f t="shared" ref="G8:G17" si="0">INT(C8*E8/D8)</f>
         <v>293</v>
       </c>
     </row>
@@ -10042,7 +10062,7 @@
         <v>45947</v>
       </c>
       <c r="G9" s="1">
-        <f>INT(C9*E9/D9)</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
@@ -10066,7 +10086,7 @@
         <v>45957</v>
       </c>
       <c r="G10" s="1">
-        <f>INT(C10*E10/D10)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
@@ -10090,7 +10110,7 @@
         <v>45887</v>
       </c>
       <c r="G11" s="1">
-        <f>INT(C11*E11/D11)</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
     </row>
@@ -10114,7 +10134,7 @@
         <v>45910</v>
       </c>
       <c r="G12" s="1">
-        <f>INT(C12*E12/D12)</f>
+        <f t="shared" si="0"/>
         <v>308</v>
       </c>
     </row>
@@ -10138,7 +10158,7 @@
         <v>45875</v>
       </c>
       <c r="G13" s="1">
-        <f>INT(C13*E13/D13)</f>
+        <f t="shared" si="0"/>
         <v>237</v>
       </c>
     </row>
@@ -10162,7 +10182,7 @@
         <v>45789</v>
       </c>
       <c r="G14" s="1">
-        <f>INT(C14*E14/D14)</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
@@ -10186,7 +10206,7 @@
         <v>45782</v>
       </c>
       <c r="G15" s="1">
-        <f>INT(C15*E15/D15)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -10210,7 +10230,7 @@
         <v>45789</v>
       </c>
       <c r="G16" s="1">
-        <f>INT(C16*E16/D16)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
@@ -10234,7 +10254,7 @@
         <v>45838</v>
       </c>
       <c r="G17" s="1">
-        <f>INT(C17*E17/D17)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
